--- a/REGULAR/1-RETIRED/REYES, ELSA.xlsx
+++ b/REGULAR/1-RETIRED/REYES, ELSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A040D-270C-4B82-9E99-689E7F4A3A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D34ED1-9A8C-42A0-90FE-5D3626CEFFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -3145,9 +3145,9 @@
   <dimension ref="A2:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A105" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A114" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G4"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD146"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
